--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-patient-type.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-patient-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>
@@ -322,10 +322,10 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension:AuthorizedAgeRange</t>
-  </si>
-  <si>
-    <t>AuthorizedAgeRange</t>
+    <t>Extension.extension:authorizedAgeRange</t>
+  </si>
+  <si>
+    <t>authorizedAgeRange</t>
   </si>
   <si>
     <t>Age de la clientèle autorisée.</t>
@@ -334,19 +334,19 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>Extension.extension:AuthorizedAgeRange.id</t>
+    <t>Extension.extension:authorizedAgeRange.id</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
-    <t>Extension.extension:AuthorizedAgeRange.extension</t>
+    <t>Extension.extension:authorizedAgeRange.extension</t>
   </si>
   <si>
     <t>Extension.extension.extension</t>
   </si>
   <si>
-    <t>Extension.extension:AuthorizedAgeRange.url</t>
+    <t>Extension.extension:authorizedAgeRange.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -368,7 +368,7 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>Extension.extension:AuthorizedAgeRange.value[x]</t>
+    <t>Extension.extension:authorizedAgeRange.value[x]</t>
   </si>
   <si>
     <t>Extension.extension.value[x]</t>
@@ -391,25 +391,25 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension:InstalledAgeRange</t>
-  </si>
-  <si>
-    <t>InstalledAgeRange</t>
+    <t>Extension.extension:installedAgeRange</t>
+  </si>
+  <si>
+    <t>installedAgeRange</t>
   </si>
   <si>
     <t>Age de la clientèle installée.</t>
   </si>
   <si>
-    <t>Extension.extension:InstalledAgeRange.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:InstalledAgeRange.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:InstalledAgeRange.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:InstalledAgeRange.value[x]</t>
+    <t>Extension.extension:installedAgeRange.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:installedAgeRange.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:installedAgeRange.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:installedAgeRange.value[x]</t>
   </si>
   <si>
     <t>base64Binary
@@ -735,9 +735,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.09765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.96875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.24609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-patient-type.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-patient-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-patient-type.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-patient-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-patient-type.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-patient-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -319,9 +319,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:authorizedAgeRange</t>
   </si>
   <si>
@@ -366,6 +363,9 @@
   </si>
   <si>
     <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Extension.extension:authorizedAgeRange.value[x]</t>
@@ -1188,24 +1188,24 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
@@ -1230,10 +1230,10 @@
         <v>91</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1293,7 +1293,7 @@
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>81</v>
@@ -1304,10 +1304,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1407,10 +1407,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1439,7 +1439,7 @@
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1499,7 +1499,7 @@
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>81</v>
@@ -1510,10 +1510,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1536,16 +1536,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -1595,7 +1595,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>83</v>
@@ -1610,7 +1610,7 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -1707,13 +1707,13 @@
         <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>124</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1812,7 +1812,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>81</v>
@@ -1826,7 +1826,7 @@
         <v>125</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1929,7 +1929,7 @@
         <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1958,7 +1958,7 @@
         <v>30</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2018,7 +2018,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>81</v>
@@ -2032,7 +2032,7 @@
         <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2055,16 +2055,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2114,7 +2114,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>83</v>
@@ -2129,7 +2129,7 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
@@ -2226,21 +2226,21 @@
         <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2263,16 +2263,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2322,7 +2322,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>83</v>
@@ -2337,7 +2337,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -2434,13 +2434,13 @@
         <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
